--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H2">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I2">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J2">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N2">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O2">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P2">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q2">
-        <v>19.07841562065538</v>
+        <v>19.566113291979</v>
       </c>
       <c r="R2">
-        <v>19.07841562065538</v>
+        <v>78.264453167916</v>
       </c>
       <c r="S2">
-        <v>0.001825164238945888</v>
+        <v>0.001787219654303442</v>
       </c>
       <c r="T2">
-        <v>0.001825164238945888</v>
+        <v>0.0008766640641847594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H3">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I3">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J3">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N3">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O3">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P3">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q3">
-        <v>3.86856005378576</v>
+        <v>4.379998786269333</v>
       </c>
       <c r="R3">
-        <v>3.86856005378576</v>
+        <v>26.279992717616</v>
       </c>
       <c r="S3">
-        <v>0.0003700913957834095</v>
+        <v>0.0004000804758630739</v>
       </c>
       <c r="T3">
-        <v>0.0003700913957834095</v>
+        <v>0.0002943702318234007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H4">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I4">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J4">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N4">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O4">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P4">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q4">
-        <v>66.84543263476324</v>
+        <v>68.61114839156133</v>
       </c>
       <c r="R4">
-        <v>66.84543263476324</v>
+        <v>411.666890349368</v>
       </c>
       <c r="S4">
-        <v>0.006394865045803277</v>
+        <v>0.006267120663151686</v>
       </c>
       <c r="T4">
-        <v>0.006394865045803277</v>
+        <v>0.004611206679099683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H5">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I5">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J5">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N5">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O5">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P5">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q5">
-        <v>75.83308845822208</v>
+        <v>78.04551021688167</v>
       </c>
       <c r="R5">
-        <v>75.83308845822208</v>
+        <v>468.27306130129</v>
       </c>
       <c r="S5">
-        <v>0.007254682146295153</v>
+        <v>0.007128879798878185</v>
       </c>
       <c r="T5">
-        <v>0.007254682146295153</v>
+        <v>0.005245269703576196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H6">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I6">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J6">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N6">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O6">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P6">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q6">
-        <v>21.95501551896966</v>
+        <v>25.06284607798016</v>
       </c>
       <c r="R6">
-        <v>21.95501551896966</v>
+        <v>150.377076467881</v>
       </c>
       <c r="S6">
-        <v>0.002100358330979106</v>
+        <v>0.002289305516886208</v>
       </c>
       <c r="T6">
-        <v>0.002100358330979106</v>
+        <v>0.001684419601497935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H7">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I7">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J7">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N7">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O7">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P7">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q7">
-        <v>38.94575613384372</v>
+        <v>42.55744471502975</v>
       </c>
       <c r="R7">
-        <v>38.94575613384372</v>
+        <v>170.229778860119</v>
       </c>
       <c r="S7">
-        <v>0.003725802119398279</v>
+        <v>0.003887307637271702</v>
       </c>
       <c r="T7">
-        <v>0.003725802119398279</v>
+        <v>0.001906795789662048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H8">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I8">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J8">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N8">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O8">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P8">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q8">
-        <v>425.3407174882861</v>
+        <v>437.449425393056</v>
       </c>
       <c r="R8">
-        <v>425.3407174882861</v>
+        <v>2624.696552358336</v>
       </c>
       <c r="S8">
-        <v>0.04069083525398835</v>
+        <v>0.03995776775690644</v>
       </c>
       <c r="T8">
-        <v>0.04069083525398835</v>
+        <v>0.02940002841271311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H9">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I9">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J9">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N9">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O9">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P9">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q9">
-        <v>86.24699983694104</v>
+        <v>97.92583348994843</v>
       </c>
       <c r="R9">
-        <v>86.24699983694104</v>
+        <v>881.3325014095359</v>
       </c>
       <c r="S9">
-        <v>0.008250944048431899</v>
+        <v>0.008944800209708913</v>
       </c>
       <c r="T9">
-        <v>0.008250944048431899</v>
+        <v>0.009872074758206315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H10">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I10">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J10">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N10">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O10">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P10">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q10">
-        <v>1490.274918159499</v>
+        <v>1533.973916615836</v>
       </c>
       <c r="R10">
-        <v>1490.274918159499</v>
+        <v>13805.76524954253</v>
       </c>
       <c r="S10">
-        <v>0.142569306639798</v>
+        <v>0.1401171654305269</v>
       </c>
       <c r="T10">
-        <v>0.142569306639798</v>
+        <v>0.1546425967722243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H11">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I11">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J11">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N11">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O11">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P11">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q11">
-        <v>1690.648788427266</v>
+        <v>1744.902684013315</v>
       </c>
       <c r="R11">
-        <v>1690.648788427266</v>
+        <v>15704.12415611984</v>
       </c>
       <c r="S11">
-        <v>0.161738362902309</v>
+        <v>0.1593839473981706</v>
       </c>
       <c r="T11">
-        <v>0.161738362902309</v>
+        <v>0.175906695184192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H12">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I12">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J12">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N12">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O12">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P12">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q12">
-        <v>489.472618637932</v>
+        <v>560.3426419912196</v>
       </c>
       <c r="R12">
-        <v>489.472618637932</v>
+        <v>5043.083777920976</v>
       </c>
       <c r="S12">
-        <v>0.04682610638348508</v>
+        <v>0.05118315364766721</v>
       </c>
       <c r="T12">
-        <v>0.04682610638348508</v>
+        <v>0.05648912299036966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H13">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I13">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J13">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N13">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O13">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P13">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q13">
-        <v>868.2699961289482</v>
+        <v>951.4781734611706</v>
       </c>
       <c r="R13">
-        <v>868.2699961289482</v>
+        <v>5708.869040767024</v>
       </c>
       <c r="S13">
-        <v>0.083064305663229</v>
+        <v>0.086910489930959</v>
       </c>
       <c r="T13">
-        <v>0.083064305663229</v>
+        <v>0.06394678723991949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H14">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I14">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J14">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N14">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O14">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P14">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q14">
-        <v>395.3082939554262</v>
+        <v>400.223893606414</v>
       </c>
       <c r="R14">
-        <v>395.3082939554262</v>
+        <v>2401.343361638484</v>
       </c>
       <c r="S14">
-        <v>0.03781773999644988</v>
+        <v>0.03655749090793932</v>
       </c>
       <c r="T14">
-        <v>0.03781773999644988</v>
+        <v>0.02689818104779255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H15">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I15">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J15">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N15">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O15">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P15">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q15">
-        <v>80.15727853577536</v>
+        <v>89.59266166319821</v>
       </c>
       <c r="R15">
-        <v>80.15727853577536</v>
+        <v>806.3339549687839</v>
       </c>
       <c r="S15">
-        <v>0.00766836204764976</v>
+        <v>0.008183626631226104</v>
       </c>
       <c r="T15">
-        <v>0.00766836204764976</v>
+        <v>0.009031993113610449</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H16">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I16">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J16">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N16">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O16">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P16">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q16">
-        <v>1385.049705330452</v>
+        <v>1403.43769579087</v>
       </c>
       <c r="R16">
-        <v>1385.049705330452</v>
+        <v>12630.93926211783</v>
       </c>
       <c r="S16">
-        <v>0.1325027843818848</v>
+        <v>0.1281936476640979</v>
       </c>
       <c r="T16">
-        <v>0.1325027843818848</v>
+        <v>0.1414830117606751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H17">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I17">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J17">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N17">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O17">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P17">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q17">
-        <v>1571.275593311606</v>
+        <v>1596.417107034968</v>
       </c>
       <c r="R17">
-        <v>1571.275593311606</v>
+        <v>14367.75396331471</v>
       </c>
       <c r="S17">
-        <v>0.1503183534452381</v>
+        <v>0.1458208887775768</v>
       </c>
       <c r="T17">
-        <v>0.1503183534452381</v>
+        <v>0.1609376041465742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H18">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I18">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J18">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N18">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O18">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P18">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q18">
-        <v>454.9119749321546</v>
+        <v>512.6592947971689</v>
       </c>
       <c r="R18">
-        <v>454.9119749321546</v>
+        <v>4613.933653174518</v>
       </c>
       <c r="S18">
-        <v>0.04351981239026467</v>
+        <v>0.04682763275210346</v>
       </c>
       <c r="T18">
-        <v>0.04351981239026467</v>
+        <v>0.0516820812584298</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H19">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I19">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J19">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N19">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O19">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P19">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q19">
-        <v>806.9632573370352</v>
+        <v>870.5104571162468</v>
       </c>
       <c r="R19">
-        <v>806.9632573370352</v>
+        <v>5223.062742697481</v>
       </c>
       <c r="S19">
-        <v>0.07719930777900991</v>
+        <v>0.0795146882274579</v>
       </c>
       <c r="T19">
-        <v>0.07719930777900991</v>
+        <v>0.05850512239165875</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H20">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I20">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J20">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N20">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O20">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P20">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q20">
-        <v>40.64025094850857</v>
+        <v>40.819687667628</v>
       </c>
       <c r="R20">
-        <v>40.64025094850857</v>
+        <v>244.918126005768</v>
       </c>
       <c r="S20">
-        <v>0.003887908417966236</v>
+        <v>0.003728576390898212</v>
       </c>
       <c r="T20">
-        <v>0.003887908417966236</v>
+        <v>0.002743402797130267</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H21">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I21">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J21">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N21">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O21">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P21">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q21">
-        <v>8.240686990014758</v>
+        <v>9.137746458485333</v>
       </c>
       <c r="R21">
-        <v>8.240686990014758</v>
+        <v>82.23971812636799</v>
       </c>
       <c r="S21">
-        <v>0.0007883572460932109</v>
+        <v>0.0008346655170059509</v>
       </c>
       <c r="T21">
-        <v>0.0007883572460932109</v>
+        <v>0.0009211922221623126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H22">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I22">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J22">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N22">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O22">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P22">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q22">
-        <v>142.3920733804143</v>
+        <v>143.1396009042293</v>
       </c>
       <c r="R22">
-        <v>142.3920733804143</v>
+        <v>1288.256408138064</v>
       </c>
       <c r="S22">
-        <v>0.01362214375715353</v>
+        <v>0.01307474326799804</v>
       </c>
       <c r="T22">
-        <v>0.01362214375715353</v>
+        <v>0.01443015382791114</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H23">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I23">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J23">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N23">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O23">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P23">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q23">
-        <v>161.5372998691768</v>
+        <v>162.8219822390467</v>
       </c>
       <c r="R23">
-        <v>161.5372998691768</v>
+        <v>1465.39784015142</v>
       </c>
       <c r="S23">
-        <v>0.01545369955447966</v>
+        <v>0.01487258314759749</v>
       </c>
       <c r="T23">
-        <v>0.01545369955447966</v>
+        <v>0.01641436915732966</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H24">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I24">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J24">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N24">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O24">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P24">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q24">
-        <v>46.76789509204941</v>
+        <v>52.28721380164867</v>
       </c>
       <c r="R24">
-        <v>46.76789509204941</v>
+        <v>470.5849242148379</v>
       </c>
       <c r="S24">
-        <v>0.004474118362342777</v>
+        <v>0.004776050040218331</v>
       </c>
       <c r="T24">
-        <v>0.004474118362342777</v>
+        <v>0.005271165586772117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.538422</v>
+      </c>
+      <c r="H25">
+        <v>16.615266</v>
+      </c>
+      <c r="I25">
+        <v>0.04539649083831242</v>
+      </c>
+      <c r="J25">
+        <v>0.04574734568113767</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.0307785</v>
+      </c>
+      <c r="N25">
+        <v>32.061557</v>
+      </c>
+      <c r="O25">
+        <v>0.1786453605737748</v>
+      </c>
+      <c r="P25">
+        <v>0.1304351542365547</v>
+      </c>
+      <c r="Q25">
+        <v>88.785216321527</v>
+      </c>
+      <c r="R25">
+        <v>532.7112979291619</v>
+      </c>
+      <c r="S25">
+        <v>0.008109872474594385</v>
+      </c>
+      <c r="T25">
+        <v>0.005967062089832176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1522935</v>
+      </c>
+      <c r="H26">
+        <v>0.304587</v>
+      </c>
+      <c r="I26">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J26">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.370274</v>
+      </c>
+      <c r="N26">
+        <v>14.740548</v>
+      </c>
+      <c r="O26">
+        <v>0.08213358173824917</v>
+      </c>
+      <c r="P26">
+        <v>0.05996856771214629</v>
+      </c>
+      <c r="Q26">
+        <v>1.122444823419</v>
+      </c>
+      <c r="R26">
+        <v>4.489779293676</v>
+      </c>
+      <c r="S26">
+        <v>0.0001025270282017616</v>
+      </c>
+      <c r="T26">
+        <v>5.029139032559075E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="H25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="I25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="J25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.0153303050952</v>
-      </c>
-      <c r="N25">
-        <v>15.0153303050952</v>
-      </c>
-      <c r="O25">
-        <v>0.1719260040146583</v>
-      </c>
-      <c r="P25">
-        <v>0.1719260040146583</v>
-      </c>
-      <c r="Q25">
-        <v>82.9610453053153</v>
-      </c>
-      <c r="R25">
-        <v>82.9610453053153</v>
-      </c>
-      <c r="S25">
-        <v>0.007936588453021117</v>
-      </c>
-      <c r="T25">
-        <v>0.007936588453021117</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.1522935</v>
+      </c>
+      <c r="H27">
+        <v>0.304587</v>
+      </c>
+      <c r="I27">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J27">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.649882666666667</v>
+      </c>
+      <c r="N27">
+        <v>4.949648</v>
+      </c>
+      <c r="O27">
+        <v>0.01838612416053829</v>
+      </c>
+      <c r="P27">
+        <v>0.020136517396727</v>
+      </c>
+      <c r="Q27">
+        <v>0.251266405896</v>
+      </c>
+      <c r="R27">
+        <v>1.507598435376</v>
+      </c>
+      <c r="S27">
+        <v>2.295132673424773E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.688707092451919E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.1522935</v>
+      </c>
+      <c r="H28">
+        <v>0.304587</v>
+      </c>
+      <c r="I28">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J28">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.84483466666667</v>
+      </c>
+      <c r="N28">
+        <v>77.534504</v>
+      </c>
+      <c r="O28">
+        <v>0.2880122015282203</v>
+      </c>
+      <c r="P28">
+        <v>0.3154314990970266</v>
+      </c>
+      <c r="Q28">
+        <v>3.936000328308</v>
+      </c>
+      <c r="R28">
+        <v>23.616001969848</v>
+      </c>
+      <c r="S28">
+        <v>0.0003595245024457978</v>
+      </c>
+      <c r="T28">
+        <v>0.0002645300571162671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1522935</v>
+      </c>
+      <c r="H29">
+        <v>0.304587</v>
+      </c>
+      <c r="I29">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J29">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>29.39862333333333</v>
+      </c>
+      <c r="N29">
+        <v>88.19587</v>
+      </c>
+      <c r="O29">
+        <v>0.3276152599673137</v>
+      </c>
+      <c r="P29">
+        <v>0.3588048423997975</v>
+      </c>
+      <c r="Q29">
+        <v>4.477219242615</v>
+      </c>
+      <c r="R29">
+        <v>26.86331545569</v>
+      </c>
+      <c r="S29">
+        <v>0.0004089608450906484</v>
+      </c>
+      <c r="T29">
+        <v>0.0003009042081254414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.1522935</v>
+      </c>
+      <c r="H30">
+        <v>0.304587</v>
+      </c>
+      <c r="I30">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J30">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.440814333333334</v>
+      </c>
+      <c r="N30">
+        <v>28.322443</v>
+      </c>
+      <c r="O30">
+        <v>0.1052074720319038</v>
+      </c>
+      <c r="P30">
+        <v>0.115223419157748</v>
+      </c>
+      <c r="Q30">
+        <v>1.4377746576735</v>
+      </c>
+      <c r="R30">
+        <v>8.626647946041</v>
+      </c>
+      <c r="S30">
+        <v>0.0001313300750285894</v>
+      </c>
+      <c r="T30">
+        <v>9.662972067845071E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.1522935</v>
+      </c>
+      <c r="H31">
+        <v>0.304587</v>
+      </c>
+      <c r="I31">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J31">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.0307785</v>
+      </c>
+      <c r="N31">
+        <v>32.061557</v>
+      </c>
+      <c r="O31">
+        <v>0.1786453605737748</v>
+      </c>
+      <c r="P31">
+        <v>0.1304351542365547</v>
+      </c>
+      <c r="Q31">
+        <v>2.44138336548975</v>
+      </c>
+      <c r="R31">
+        <v>9.765533461959</v>
+      </c>
+      <c r="S31">
+        <v>0.000223002303491796</v>
+      </c>
+      <c r="T31">
+        <v>0.0001093867254821989</v>
       </c>
     </row>
   </sheetData>
